--- a/predict/result - backup.xlsx
+++ b/predict/result - backup.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uni\DoAn\food_ordering_system\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F32DCF1-3533-4E8B-BDB9-CDAC5B398EC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EDE29-0479-4C67-AEE5-C19FFED43150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of keyword" sheetId="1" r:id="rId1"/>
+    <sheet name="nam_bac" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -79,13 +80,76 @@
   </si>
   <si>
     <t>trà hoa cúc</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_bac_13_5_20210530.wav</t>
+  </si>
+  <si>
+    <t>khong</t>
+  </si>
+  <si>
+    <t>com_tam</t>
+  </si>
+  <si>
+    <t>com_nieu</t>
+  </si>
+  <si>
+    <t>khoai_tay_chien</t>
+  </si>
+  <si>
+    <t>com_thap_cam</t>
+  </si>
+  <si>
+    <t>com_heo_xi_muoi</t>
+  </si>
+  <si>
+    <t>ca_kho</t>
+  </si>
+  <si>
+    <t>ca_xot</t>
+  </si>
+  <si>
+    <t>trung_chien</t>
+  </si>
+  <si>
+    <t>rau_cai_luoc</t>
+  </si>
+  <si>
+    <t>rau_cai_xao</t>
+  </si>
+  <si>
+    <t>salad_tron</t>
+  </si>
+  <si>
+    <t>tra_sam_dua</t>
+  </si>
+  <si>
+    <t>tra_hoa_cuc</t>
+  </si>
+  <si>
+    <t>khong_biet</t>
+  </si>
+  <si>
+    <t>keyword_said</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>file_recorded_name</t>
+  </si>
+  <si>
+    <t>nam_bac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +164,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,10 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,152 +505,397 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652330FA-4300-411E-BC2F-5ABA32A5862D}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/predict/result - backup.xlsx
+++ b/predict/result - backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uni\DoAn\food_ordering_system\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EDE29-0479-4C67-AEE5-C19FFED43150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACE789-224F-4785-BD8C-BCB41D1F19C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of keyword" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>co</t>
   </si>
   <si>
-    <t>../../recorded_audios/final_experiment/nam_bac_13_5_20210530.wav</t>
-  </si>
-  <si>
     <t>khong</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>nam_bac</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_bac_13_5_20210602.wav</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,21 +702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652330FA-4300-411E-BC2F-5ABA32A5862D}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -727,172 +727,172 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/predict/result - backup.xlsx
+++ b/predict/result - backup.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\uni\DoAn\food_ordering_system\predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACE789-224F-4785-BD8C-BCB41D1F19C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA7BCF-D7B9-4901-AB26-DDFE36868A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="712" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of keyword" sheetId="1" r:id="rId1"/>
-    <sheet name="nam_bac" sheetId="2" r:id="rId2"/>
+    <sheet name="nu_nam_14_10" sheetId="8" r:id="rId2"/>
+    <sheet name="nu_nam_13_5" sheetId="9" r:id="rId3"/>
+    <sheet name="nam_nam_14_10" sheetId="10" r:id="rId4"/>
+    <sheet name="nam_nam_13_5" sheetId="11" r:id="rId5"/>
+    <sheet name="nu_trung_13_5" sheetId="13" r:id="rId6"/>
+    <sheet name="nu_trung_14_10" sheetId="12" r:id="rId7"/>
+    <sheet name="nam_trung_13_5" sheetId="6" r:id="rId8"/>
+    <sheet name="nam_trung_14_10" sheetId="7" r:id="rId9"/>
+    <sheet name="nam_bac_13_5" sheetId="2" r:id="rId10"/>
+    <sheet name="nam_bac_14_10" sheetId="3" r:id="rId11"/>
+    <sheet name="nu_bac_13_5" sheetId="4" r:id="rId12"/>
+    <sheet name="nu_bac_14_10" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -40,21 +51,9 @@
     <t>không</t>
   </si>
   <si>
-    <t>bất kỳ (ví dụ: kẹo)</t>
-  </si>
-  <si>
     <t>cơm tấm</t>
   </si>
   <si>
-    <t>cơm niêu</t>
-  </si>
-  <si>
-    <t>khoai tây chiên</t>
-  </si>
-  <si>
-    <t>cơm thập cẩm</t>
-  </si>
-  <si>
     <t>cơm heo xí muội</t>
   </si>
   <si>
@@ -70,18 +69,12 @@
     <t>rau cải luộc</t>
   </si>
   <si>
-    <t>rau cải xào</t>
-  </si>
-  <si>
     <t>salad trộn</t>
   </si>
   <si>
     <t>trà sâm dứa</t>
   </si>
   <si>
-    <t>trà hoa cúc</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -91,15 +84,6 @@
     <t>com_tam</t>
   </si>
   <si>
-    <t>com_nieu</t>
-  </si>
-  <si>
-    <t>khoai_tay_chien</t>
-  </si>
-  <si>
-    <t>com_thap_cam</t>
-  </si>
-  <si>
     <t>com_heo_xi_muoi</t>
   </si>
   <si>
@@ -115,21 +99,12 @@
     <t>rau_cai_luoc</t>
   </si>
   <si>
-    <t>rau_cai_xao</t>
-  </si>
-  <si>
     <t>salad_tron</t>
   </si>
   <si>
     <t>tra_sam_dua</t>
   </si>
   <si>
-    <t>tra_hoa_cuc</t>
-  </si>
-  <si>
-    <t>khong_biet</t>
-  </si>
-  <si>
     <t>keyword_said</t>
   </si>
   <si>
@@ -142,14 +117,68 @@
     <t>nam_bac</t>
   </si>
   <si>
-    <t>../../recorded_audios/final_experiment/nam_bac_13_5_20210602.wav</t>
+    <t>nu_bac</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_bac_13_5_202106051726.wav</t>
+  </si>
+  <si>
+    <t>13_5</t>
+  </si>
+  <si>
+    <t>nam_trung</t>
+  </si>
+  <si>
+    <t>nu_trung</t>
+  </si>
+  <si>
+    <t>nam_nam</t>
+  </si>
+  <si>
+    <t>nam_nu</t>
+  </si>
+  <si>
+    <t>14_10</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_bac_14_10_202106051737.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_bac_14_10_202106051825.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_bac_13_5_202106051831.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_trung_13_5_202106051909.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_trung_14_10_202106051915.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_trung_14_10_202106062244.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_trung_13_5_202106062257.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_nam_13_5_202106062309.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nam_nam_14_10_202106062312.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_nam_14_10_202106062315.wav</t>
+  </si>
+  <si>
+    <t>../../recorded_audios/final_experiment/nu_nam_13_5_202106062318.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +198,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,12 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,235 +531,2052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652330FA-4300-411E-BC2F-5ABA32A5862D}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBF2B7B-2EF5-41C3-8F63-0CA20B610ECB}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34997806-77CD-468C-A8CE-F2F6E4172D68}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3A465-43BE-4688-81BC-FA05244A07B3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA46EB82-A964-4F88-AA77-5C59B127FDDF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9585B6-3C3D-46DE-A76A-D4EEC47445A6}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F6F63F-87A4-4E0C-91D8-54FF646F480F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70256E6D-8F83-4B03-AF93-FB53B99742F5}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DFD194-BEEF-450D-BB11-5E94B7B8537B}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF38EA85-8B5A-49CF-B492-5DDAF4FEE2BF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741CF74C-AB5A-4369-B30C-6AD7E56ED494}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B28410-AA92-4738-9264-1C4CCE7FBC61}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -732,7 +2587,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -743,7 +2598,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -754,10 +2609,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -765,10 +2620,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -776,7 +2631,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -787,10 +2642,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -798,10 +2653,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
@@ -809,7 +2664,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -820,78 +2675,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
         <v>38</v>
       </c>
     </row>
